--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1972.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1972.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.35925535187901</v>
+        <v>0.8931353688240051</v>
       </c>
       <c r="B1">
-        <v>2.792243390532342</v>
+        <v>1.495593786239624</v>
       </c>
       <c r="C1">
-        <v>10.17593372678799</v>
+        <v>8.791707038879395</v>
       </c>
       <c r="D1">
-        <v>1.987180089630757</v>
+        <v>2.073096513748169</v>
       </c>
       <c r="E1">
-        <v>1.029667433036435</v>
+        <v>1.203125238418579</v>
       </c>
     </row>
   </sheetData>
